--- a/rfuse/rfuse_busy_summary.xlsx
+++ b/rfuse/rfuse_busy_summary.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>8982</v>
+        <v>970</v>
       </c>
       <c r="C3" s="3">
-        <v>17600</v>
+        <v>1822</v>
       </c>
       <c r="D3" s="3">
-        <v>30900</v>
+        <v>3657</v>
       </c>
       <c r="E3" s="3">
-        <v>44900</v>
+        <v>6907</v>
       </c>
       <c r="F3" s="3">
-        <v>49300</v>
+        <v>11100</v>
       </c>
       <c r="G3" s="3">
-        <v>50200</v>
+        <v>33500</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>9010</v>
+        <v>4426</v>
       </c>
       <c r="C8" s="3">
-        <v>17300</v>
+        <v>8001</v>
       </c>
       <c r="D8" s="3">
-        <v>31100</v>
+        <v>17000</v>
       </c>
       <c r="E8" s="3">
-        <v>233000</v>
+        <v>34000</v>
       </c>
       <c r="F8" s="3">
-        <v>316000</v>
+        <v>57200</v>
       </c>
       <c r="G8" s="3">
-        <v>320000</v>
+        <v>91900</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>7876</v>
+        <v>7366</v>
       </c>
       <c r="C13" s="3">
-        <v>12500</v>
+        <v>11300</v>
       </c>
       <c r="D13" s="3">
-        <v>13700</v>
+        <v>14000</v>
       </c>
       <c r="E13" s="3">
-        <v>18100</v>
+        <v>16100</v>
       </c>
       <c r="F13" s="3">
-        <v>17600</v>
+        <v>16800</v>
       </c>
       <c r="G13" s="3">
-        <v>15700</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -612,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>142000</v>
+        <v>139000</v>
       </c>
       <c r="C18" s="3">
-        <v>190000</v>
+        <v>184000</v>
       </c>
       <c r="D18" s="3">
-        <v>247000</v>
+        <v>342000</v>
       </c>
       <c r="E18" s="3">
-        <v>405000</v>
+        <v>509000</v>
       </c>
       <c r="F18" s="3">
-        <v>442000</v>
+        <v>373000</v>
       </c>
       <c r="G18" s="3">
-        <v>223000</v>
+        <v>267000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>3878</v>
+        <v>3923</v>
       </c>
       <c r="C23" s="3">
-        <v>4240</v>
+        <v>3764</v>
       </c>
       <c r="D23" s="3">
-        <v>6036</v>
+        <v>5752</v>
       </c>
       <c r="E23" s="3">
-        <v>6720</v>
+        <v>9235</v>
       </c>
       <c r="F23" s="3">
-        <v>7329</v>
+        <v>9615</v>
       </c>
       <c r="G23" s="3">
-        <v>6730</v>
+        <v>9564</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>130000</v>
+        <v>127000</v>
       </c>
       <c r="C28" s="3">
-        <v>148000</v>
+        <v>157000</v>
       </c>
       <c r="D28" s="3">
-        <v>215000</v>
+        <v>210000</v>
       </c>
       <c r="E28" s="3">
-        <v>231000</v>
+        <v>288000</v>
       </c>
       <c r="F28" s="3">
-        <v>279000</v>
+        <v>280000</v>
       </c>
       <c r="G28" s="3">
-        <v>242000</v>
+        <v>424000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -774,22 +774,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>7937</v>
+        <v>5019</v>
       </c>
       <c r="C33" s="3">
-        <v>8587</v>
+        <v>8462</v>
       </c>
       <c r="D33" s="3">
-        <v>11800</v>
+        <v>10800</v>
       </c>
       <c r="E33" s="3">
-        <v>13100</v>
+        <v>11700</v>
       </c>
       <c r="F33" s="3">
-        <v>13200</v>
+        <v>12100</v>
       </c>
       <c r="G33" s="3">
-        <v>13200</v>
+        <v>11700</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>147000</v>
+        <v>122000</v>
       </c>
       <c r="C38" s="3">
-        <v>169000</v>
+        <v>182000</v>
       </c>
       <c r="D38" s="3">
-        <v>276000</v>
+        <v>278000</v>
       </c>
       <c r="E38" s="3">
-        <v>348000</v>
+        <v>324000</v>
       </c>
       <c r="F38" s="3">
-        <v>372000</v>
+        <v>349000</v>
       </c>
       <c r="G38" s="3">
-        <v>281000</v>
+        <v>261000</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/rfuse_busy_summary.xlsx
+++ b/rfuse/rfuse_busy_summary.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>970</v>
+        <v>988</v>
       </c>
       <c r="C3" s="3">
-        <v>1822</v>
+        <v>1910</v>
       </c>
       <c r="D3" s="3">
-        <v>3657</v>
+        <v>3503</v>
       </c>
       <c r="E3" s="3">
-        <v>6907</v>
+        <v>6104</v>
       </c>
       <c r="F3" s="3">
-        <v>11100</v>
+        <v>10300</v>
       </c>
       <c r="G3" s="3">
-        <v>33500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>4426</v>
+        <v>4519</v>
       </c>
       <c r="C8" s="3">
-        <v>8001</v>
+        <v>8689</v>
       </c>
       <c r="D8" s="3">
-        <v>17000</v>
+        <v>17400</v>
       </c>
       <c r="E8" s="3">
-        <v>34000</v>
+        <v>33900</v>
       </c>
       <c r="F8" s="3">
-        <v>57200</v>
+        <v>59900</v>
       </c>
       <c r="G8" s="3">
-        <v>91900</v>
+        <v>103000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -561,19 +561,19 @@
         <v>7366</v>
       </c>
       <c r="C13" s="3">
-        <v>11300</v>
+        <v>9941</v>
       </c>
       <c r="D13" s="3">
-        <v>14000</v>
+        <v>12200</v>
       </c>
       <c r="E13" s="3">
-        <v>16100</v>
+        <v>16000</v>
       </c>
       <c r="F13" s="3">
-        <v>16800</v>
+        <v>17500</v>
       </c>
       <c r="G13" s="3">
-        <v>15500</v>
+        <v>14800</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -612,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>139000</v>
+        <v>129000</v>
       </c>
       <c r="C18" s="3">
-        <v>184000</v>
+        <v>178000</v>
       </c>
       <c r="D18" s="3">
-        <v>342000</v>
+        <v>308000</v>
       </c>
       <c r="E18" s="3">
-        <v>509000</v>
+        <v>393000</v>
       </c>
       <c r="F18" s="3">
-        <v>373000</v>
+        <v>456000</v>
       </c>
       <c r="G18" s="3">
-        <v>267000</v>
+        <v>214000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>3923</v>
+        <v>12600</v>
       </c>
       <c r="C23" s="3">
-        <v>3764</v>
+        <v>18600</v>
       </c>
       <c r="D23" s="3">
-        <v>5752</v>
+        <v>25900</v>
       </c>
       <c r="E23" s="3">
-        <v>9235</v>
+        <v>30700</v>
       </c>
       <c r="F23" s="3">
-        <v>9615</v>
+        <v>33400</v>
       </c>
       <c r="G23" s="3">
-        <v>9564</v>
+        <v>37200</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>127000</v>
+        <v>426000</v>
       </c>
       <c r="C28" s="3">
-        <v>157000</v>
+        <v>624000</v>
       </c>
       <c r="D28" s="3">
-        <v>210000</v>
+        <v>794000</v>
       </c>
       <c r="E28" s="3">
-        <v>288000</v>
+        <v>901000</v>
       </c>
       <c r="F28" s="3">
-        <v>280000</v>
+        <v>987000</v>
       </c>
       <c r="G28" s="3">
-        <v>424000</v>
+        <v>994000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -774,22 +774,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>5019</v>
+        <v>5595</v>
       </c>
       <c r="C33" s="3">
-        <v>8462</v>
+        <v>9183</v>
       </c>
       <c r="D33" s="3">
-        <v>10800</v>
+        <v>10600</v>
       </c>
       <c r="E33" s="3">
-        <v>11700</v>
+        <v>12100</v>
       </c>
       <c r="F33" s="3">
-        <v>12100</v>
+        <v>12500</v>
       </c>
       <c r="G33" s="3">
-        <v>11700</v>
+        <v>12700</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>122000</v>
+        <v>147000</v>
       </c>
       <c r="C38" s="3">
-        <v>182000</v>
+        <v>209000</v>
       </c>
       <c r="D38" s="3">
-        <v>278000</v>
+        <v>266000</v>
       </c>
       <c r="E38" s="3">
-        <v>324000</v>
+        <v>319000</v>
       </c>
       <c r="F38" s="3">
-        <v>349000</v>
+        <v>342000</v>
       </c>
       <c r="G38" s="3">
-        <v>261000</v>
+        <v>236000</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/rfuse_busy_summary.xlsx
+++ b/rfuse/rfuse_busy_summary.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>996</v>
+        <v>969</v>
       </c>
       <c r="C3" s="3">
-        <v>2890</v>
+        <v>4079</v>
       </c>
       <c r="D3" s="3">
-        <v>3881</v>
+        <v>3929</v>
       </c>
       <c r="E3" s="3">
-        <v>9517</v>
+        <v>11300</v>
       </c>
       <c r="F3" s="3">
-        <v>9622</v>
+        <v>10500</v>
       </c>
       <c r="G3" s="3">
-        <v>21900</v>
+        <v>20900</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>15700</v>
+        <v>14400</v>
       </c>
       <c r="C8" s="3">
-        <v>21500</v>
+        <v>23400</v>
       </c>
       <c r="D8" s="3">
-        <v>40500</v>
+        <v>46500</v>
       </c>
       <c r="E8" s="3">
-        <v>78400</v>
+        <v>81300</v>
       </c>
       <c r="F8" s="3">
-        <v>132000</v>
+        <v>150000</v>
       </c>
       <c r="G8" s="3">
-        <v>164000</v>
+        <v>172000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>2913</v>
+        <v>3047</v>
       </c>
       <c r="C13" s="3">
-        <v>3241</v>
+        <v>3424</v>
       </c>
       <c r="D13" s="3">
-        <v>3414</v>
+        <v>3606</v>
       </c>
       <c r="E13" s="3">
-        <v>3356</v>
+        <v>3740</v>
       </c>
       <c r="F13" s="3">
-        <v>3651</v>
+        <v>3942</v>
       </c>
       <c r="G13" s="3">
-        <v>3543</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -612,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>128000</v>
+        <v>121000</v>
       </c>
       <c r="C18" s="3">
-        <v>187000</v>
+        <v>211000</v>
       </c>
       <c r="D18" s="3">
-        <v>192000</v>
+        <v>308000</v>
       </c>
       <c r="E18" s="3">
-        <v>224000</v>
+        <v>431000</v>
       </c>
       <c r="F18" s="3">
-        <v>244000</v>
+        <v>410000</v>
       </c>
       <c r="G18" s="3">
-        <v>182000</v>
+        <v>158000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>3727</v>
+        <v>4087</v>
       </c>
       <c r="C23" s="3">
-        <v>4670</v>
+        <v>4518</v>
       </c>
       <c r="D23" s="3">
-        <v>7151</v>
+        <v>6180</v>
       </c>
       <c r="E23" s="3">
-        <v>12200</v>
+        <v>14800</v>
       </c>
       <c r="F23" s="3">
-        <v>8807</v>
+        <v>8770</v>
       </c>
       <c r="G23" s="3">
-        <v>32800</v>
+        <v>20300</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>153000</v>
+        <v>87400</v>
       </c>
       <c r="C28" s="3">
-        <v>156000</v>
+        <v>152000</v>
       </c>
       <c r="D28" s="3">
+        <v>265000</v>
+      </c>
+      <c r="E28" s="3">
         <v>242000</v>
       </c>
-      <c r="E28" s="3">
-        <v>530000</v>
-      </c>
       <c r="F28" s="3">
-        <v>269000</v>
+        <v>267000</v>
       </c>
       <c r="G28" s="3">
-        <v>699000</v>
+        <v>646000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -774,19 +774,19 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>6989</v>
+        <v>6872</v>
       </c>
       <c r="C33" s="3">
-        <v>8291</v>
+        <v>9102</v>
       </c>
       <c r="D33" s="3">
-        <v>9036</v>
+        <v>11700</v>
       </c>
       <c r="E33" s="3">
-        <v>11300</v>
+        <v>12000</v>
       </c>
       <c r="F33" s="3">
-        <v>12600</v>
+        <v>14300</v>
       </c>
       <c r="G33" s="3">
         <v>13900</v>
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>124000</v>
+        <v>152000</v>
       </c>
       <c r="C38" s="3">
         <v>177000</v>
       </c>
       <c r="D38" s="3">
-        <v>202000</v>
+        <v>278000</v>
       </c>
       <c r="E38" s="3">
-        <v>245000</v>
+        <v>364000</v>
       </c>
       <c r="F38" s="3">
-        <v>288000</v>
+        <v>434000</v>
       </c>
       <c r="G38" s="3">
-        <v>387000</v>
+        <v>258000</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/rfuse_busy_summary.xlsx
+++ b/rfuse/rfuse_busy_summary.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>969</v>
+        <v>6965</v>
       </c>
       <c r="C3" s="3">
-        <v>4079</v>
+        <v>13000</v>
       </c>
       <c r="D3" s="3">
-        <v>3929</v>
+        <v>19400</v>
       </c>
       <c r="E3" s="3">
-        <v>11300</v>
+        <v>24700</v>
       </c>
       <c r="F3" s="3">
-        <v>10500</v>
+        <v>28100</v>
       </c>
       <c r="G3" s="3">
-        <v>20900</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>14400</v>
+        <v>13300</v>
       </c>
       <c r="C8" s="3">
-        <v>23400</v>
+        <v>8120</v>
       </c>
       <c r="D8" s="3">
-        <v>46500</v>
+        <v>15200</v>
       </c>
       <c r="E8" s="3">
-        <v>81300</v>
+        <v>30100</v>
       </c>
       <c r="F8" s="3">
-        <v>150000</v>
+        <v>179000</v>
       </c>
       <c r="G8" s="3">
-        <v>172000</v>
+        <v>247000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>3047</v>
+        <v>7314</v>
       </c>
       <c r="C13" s="3">
-        <v>3424</v>
+        <v>8982</v>
       </c>
       <c r="D13" s="3">
-        <v>3606</v>
+        <v>10500</v>
       </c>
       <c r="E13" s="3">
-        <v>3740</v>
+        <v>11300</v>
       </c>
       <c r="F13" s="3">
-        <v>3942</v>
+        <v>13300</v>
       </c>
       <c r="G13" s="3">
-        <v>4469</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -612,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>121000</v>
+        <v>127000</v>
       </c>
       <c r="C18" s="3">
-        <v>211000</v>
+        <v>156000</v>
       </c>
       <c r="D18" s="3">
-        <v>308000</v>
+        <v>200000</v>
       </c>
       <c r="E18" s="3">
-        <v>431000</v>
+        <v>217000</v>
       </c>
       <c r="F18" s="3">
-        <v>410000</v>
+        <v>232000</v>
       </c>
       <c r="G18" s="3">
-        <v>158000</v>
+        <v>283000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>4087</v>
+        <v>2687</v>
       </c>
       <c r="C23" s="3">
-        <v>4518</v>
+        <v>3065</v>
       </c>
       <c r="D23" s="3">
-        <v>6180</v>
+        <v>5126</v>
       </c>
       <c r="E23" s="3">
-        <v>14800</v>
+        <v>8159</v>
       </c>
       <c r="F23" s="3">
-        <v>8770</v>
+        <v>7775</v>
       </c>
       <c r="G23" s="3">
-        <v>20300</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>87400</v>
+        <v>98100</v>
       </c>
       <c r="C28" s="3">
-        <v>152000</v>
+        <v>82200</v>
       </c>
       <c r="D28" s="3">
-        <v>265000</v>
+        <v>169000</v>
       </c>
       <c r="E28" s="3">
-        <v>242000</v>
+        <v>266000</v>
       </c>
       <c r="F28" s="3">
-        <v>267000</v>
+        <v>256000</v>
       </c>
       <c r="G28" s="3">
-        <v>646000</v>
+        <v>238000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -774,22 +774,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>6872</v>
+        <v>5752</v>
       </c>
       <c r="C33" s="3">
-        <v>9102</v>
+        <v>7816</v>
       </c>
       <c r="D33" s="3">
-        <v>11700</v>
+        <v>8445</v>
       </c>
       <c r="E33" s="3">
-        <v>12000</v>
+        <v>9405</v>
       </c>
       <c r="F33" s="3">
-        <v>14300</v>
+        <v>9935</v>
       </c>
       <c r="G33" s="3">
-        <v>13900</v>
+        <v>10200</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>152000</v>
+        <v>119000</v>
       </c>
       <c r="C38" s="3">
-        <v>177000</v>
+        <v>161000</v>
       </c>
       <c r="D38" s="3">
-        <v>278000</v>
+        <v>215000</v>
       </c>
       <c r="E38" s="3">
-        <v>364000</v>
+        <v>206000</v>
       </c>
       <c r="F38" s="3">
-        <v>434000</v>
+        <v>233000</v>
       </c>
       <c r="G38" s="3">
-        <v>258000</v>
+        <v>286000</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/rfuse_busy_summary.xlsx
+++ b/rfuse/rfuse_busy_summary.xlsx
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>6965</v>
+        <v>6736</v>
       </c>
       <c r="C3" s="3">
-        <v>13000</v>
+        <v>12200</v>
       </c>
       <c r="D3" s="3">
-        <v>19400</v>
+        <v>18500</v>
       </c>
       <c r="E3" s="3">
-        <v>24700</v>
+        <v>25500</v>
       </c>
       <c r="F3" s="3">
-        <v>28100</v>
+        <v>29200</v>
       </c>
       <c r="G3" s="3">
-        <v>27500</v>
+        <v>30600</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -504,22 +504,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>13300</v>
+        <v>4003</v>
       </c>
       <c r="C8" s="3">
-        <v>8120</v>
+        <v>7393</v>
       </c>
       <c r="D8" s="3">
-        <v>15200</v>
+        <v>15900</v>
       </c>
       <c r="E8" s="3">
-        <v>30100</v>
+        <v>109000</v>
       </c>
       <c r="F8" s="3">
-        <v>179000</v>
+        <v>174000</v>
       </c>
       <c r="G8" s="3">
-        <v>247000</v>
+        <v>244000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>7314</v>
+        <v>8325</v>
       </c>
       <c r="C13" s="3">
-        <v>8982</v>
+        <v>9022</v>
       </c>
       <c r="D13" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="E13" s="3">
-        <v>11300</v>
+        <v>12400</v>
       </c>
       <c r="F13" s="3">
-        <v>13300</v>
+        <v>11700</v>
       </c>
       <c r="G13" s="3">
-        <v>13200</v>
+        <v>13400</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -612,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>127000</v>
+        <v>115000</v>
       </c>
       <c r="C18" s="3">
-        <v>156000</v>
+        <v>161000</v>
       </c>
       <c r="D18" s="3">
-        <v>200000</v>
+        <v>177000</v>
       </c>
       <c r="E18" s="3">
-        <v>217000</v>
+        <v>214000</v>
       </c>
       <c r="F18" s="3">
-        <v>232000</v>
+        <v>233000</v>
       </c>
       <c r="G18" s="3">
-        <v>283000</v>
+        <v>276000</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -666,22 +666,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>2687</v>
+        <v>2797</v>
       </c>
       <c r="C23" s="3">
-        <v>3065</v>
+        <v>3075</v>
       </c>
       <c r="D23" s="3">
-        <v>5126</v>
+        <v>5152</v>
       </c>
       <c r="E23" s="3">
-        <v>8159</v>
+        <v>8445</v>
       </c>
       <c r="F23" s="3">
-        <v>7775</v>
+        <v>7553</v>
       </c>
       <c r="G23" s="3">
-        <v>7400</v>
+        <v>19400</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -720,22 +720,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>98100</v>
+        <v>90500</v>
       </c>
       <c r="C28" s="3">
-        <v>82200</v>
+        <v>115000</v>
       </c>
       <c r="D28" s="3">
-        <v>169000</v>
+        <v>171000</v>
       </c>
       <c r="E28" s="3">
-        <v>266000</v>
+        <v>247000</v>
       </c>
       <c r="F28" s="3">
-        <v>256000</v>
+        <v>262000</v>
       </c>
       <c r="G28" s="3">
-        <v>238000</v>
+        <v>272000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -774,22 +774,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>5752</v>
+        <v>5785</v>
       </c>
       <c r="C33" s="3">
-        <v>7816</v>
+        <v>7393</v>
       </c>
       <c r="D33" s="3">
-        <v>8445</v>
+        <v>8175</v>
       </c>
       <c r="E33" s="3">
-        <v>9405</v>
+        <v>9340</v>
       </c>
       <c r="F33" s="3">
-        <v>9935</v>
+        <v>9810</v>
       </c>
       <c r="G33" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -828,22 +828,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>119000</v>
+        <v>121000</v>
       </c>
       <c r="C38" s="3">
-        <v>161000</v>
+        <v>166000</v>
       </c>
       <c r="D38" s="3">
+        <v>188000</v>
+      </c>
+      <c r="E38" s="3">
         <v>215000</v>
       </c>
-      <c r="E38" s="3">
-        <v>206000</v>
-      </c>
       <c r="F38" s="3">
-        <v>233000</v>
+        <v>241000</v>
       </c>
       <c r="G38" s="3">
-        <v>286000</v>
+        <v>283000</v>
       </c>
     </row>
   </sheetData>
